--- a/data/trans_orig/ACT_TRABAJO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ACT_TRABAJO-Clase-trans_orig.xlsx
@@ -6139,12 +6139,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6154,12 +6154,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10364,12 +10364,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1006</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10379,12 +10379,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -12036,97 +12036,97 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>13,49%</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K29" s="2" t="inlineStr">
+      <c r="R29" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>1096</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O29" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P29" s="2" t="inlineStr">
-        <is>
-          <t>10,53%</t>
-        </is>
-      </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>1146</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/ACT_TRABAJO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ACT_TRABAJO-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en País Vasco</t>
+          <t>Actividad principal en el trabajo en País Vasco (tasa de respuesta: 95,41%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4771,7 +4771,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en Andalucia</t>
+          <t>Actividad principal en el trabajo en Andalucia (tasa de respuesta: 99,43%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8996,7 +8996,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en C.Valenciana</t>
+          <t>Actividad principal en el trabajo en C.Valenciana (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -13221,7 +13221,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actividad principal en el trabajo en Barcelona</t>
+          <t>Actividad principal en el trabajo en Barcelona (tasa de respuesta: 99,52%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/ACT_TRABAJO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/ACT_TRABAJO-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>1496</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>6394</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>767</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>9</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2076</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3822</t>
+          <t>7183</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8421</t>
+          <t>16528</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6313</t>
+          <t>11676</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11112</t>
+          <t>21993</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7948</t>
+          <t>17026</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5928</t>
+          <t>12065</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10442</t>
+          <t>22788</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>16370</t>
+          <t>33554</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>13231</t>
+          <t>26965</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>19891</t>
+          <t>42481</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>11,96%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24219</t>
+          <t>57043</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20858</t>
+          <t>48072</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27677</t>
+          <t>66523</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>33,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,11%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30029</t>
+          <t>76156</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26631</t>
+          <t>66554</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>34131</t>
+          <t>86074</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>40,92%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>46,25%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>54249</t>
+          <t>133199</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>49174</t>
+          <t>119464</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>59100</t>
+          <t>147896</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>33,63%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>39,03%</t>
+          <t>41,64%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40544</t>
+          <t>92429</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36680</t>
+          <t>83490</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44074</t>
+          <t>101928</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>54,66%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,19%</t>
+          <t>49,37%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,1%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>38193</t>
+          <t>92138</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34368</t>
+          <t>82358</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>42030</t>
+          <t>102173</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
+          <t>49,51%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>54,91%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>78738</t>
+          <t>184567</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>73373</t>
+          <t>171920</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>83597</t>
+          <t>198988</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>48,4%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>55,2%</t>
+          <t>56,02%</t>
         </is>
       </c>
     </row>
@@ -1188,17 +1188,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74573</t>
+          <t>169100</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74573</t>
+          <t>169100</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74573</t>
+          <t>169100</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>76858</t>
+          <t>186088</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>76858</t>
+          <t>186088</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>76858</t>
+          <t>186088</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1258,17 +1258,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>151432</t>
+          <t>355187</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>151432</t>
+          <t>355187</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>151432</t>
+          <t>355187</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>615</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1315,12 +1315,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>873</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1340,32 +1340,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>1540</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>489</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1375,32 +1375,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>2156</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>808</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>5232</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -1418,32 +1418,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5497</t>
+          <t>17684</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3580</t>
+          <t>11768</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7805</t>
+          <t>24948</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1453,32 +1453,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6646</t>
+          <t>12612</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4695</t>
+          <t>8621</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9016</t>
+          <t>18100</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1488,32 +1488,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12143</t>
+          <t>30295</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9520</t>
+          <t>22371</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15291</t>
+          <t>39279</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>17,89%</t>
         </is>
       </c>
     </row>
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12679</t>
+          <t>24808</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10209</t>
+          <t>19389</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15357</t>
+          <t>31661</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,6%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,03%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18452</t>
+          <t>35628</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15419</t>
+          <t>29516</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21686</t>
+          <t>42633</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>25,38%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>36,22%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>31131</t>
+          <t>60436</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>26977</t>
+          <t>50788</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>35607</t>
+          <t>69257</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>23,13%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>31,54%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25908</t>
+          <t>58798</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22954</t>
+          <t>51184</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28774</t>
+          <t>65652</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>51,78%</t>
+          <t>50,23%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>64,9%</t>
+          <t>64,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35084</t>
+          <t>67918</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>31741</t>
+          <t>60622</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>38528</t>
+          <t>74515</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>57,75%</t>
+          <t>57,71%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>63,42%</t>
+          <t>63,31%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>60992</t>
+          <t>126716</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>56277</t>
+          <t>117182</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>65423</t>
+          <t>138533</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>58,04%</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>53,55%</t>
+          <t>53,36%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>62,26%</t>
+          <t>63,08%</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44333</t>
+          <t>101905</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44333</t>
+          <t>101905</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>44333</t>
+          <t>101905</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1792,17 +1792,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60752</t>
+          <t>117698</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60752</t>
+          <t>117698</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60752</t>
+          <t>117698</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1827,17 +1827,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>105085</t>
+          <t>219603</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>105085</t>
+          <t>219603</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>105085</t>
+          <t>219603</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3742</t>
+          <t>6717</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2278</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5528</t>
+          <t>10245</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1909,32 +1909,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>192</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4309</t>
+          <t>7803</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2595</t>
+          <t>4882</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>6479</t>
+          <t>12250</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -1987,32 +1987,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15120</t>
+          <t>26576</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12234</t>
+          <t>20832</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18650</t>
+          <t>33662</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,01%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2022,32 +2022,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4877</t>
+          <t>10535</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3133</t>
+          <t>6757</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7144</t>
+          <t>15344</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>21,38%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2057,32 +2057,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>19997</t>
+          <t>37111</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>16578</t>
+          <t>30474</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>23950</t>
+          <t>45319</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>18,0%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>22,84%</t>
         </is>
       </c>
     </row>
@@ -2100,32 +2100,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31436</t>
+          <t>60140</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27638</t>
+          <t>52752</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35273</t>
+          <t>68454</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2135,32 +2135,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>15049</t>
+          <t>23466</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>12609</t>
+          <t>19073</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>17643</t>
+          <t>28050</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>43,17%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>35,09%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>52,81%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2170,32 +2170,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>46485</t>
+          <t>83606</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>41897</t>
+          <t>74062</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>51639</t>
+          <t>93241</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>42,14%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>46,49%</t>
+          <t>46,99%</t>
         </is>
       </c>
     </row>
@@ -2213,32 +2213,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27365</t>
+          <t>50619</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23400</t>
+          <t>42785</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31137</t>
+          <t>57835</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>29,7%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2248,32 +2248,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12918</t>
+          <t>19272</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10591</t>
+          <t>15070</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15422</t>
+          <t>23276</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>27,72%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>42,82%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2283,32 +2283,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>40282</t>
+          <t>69891</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>35520</t>
+          <t>61651</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>44480</t>
+          <t>79281</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>39,96%</t>
         </is>
       </c>
     </row>
@@ -2326,17 +2326,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>77663</t>
+          <t>144052</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>77663</t>
+          <t>144052</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>77663</t>
+          <t>144052</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2361,17 +2361,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>33411</t>
+          <t>54359</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>33411</t>
+          <t>54359</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>33411</t>
+          <t>54359</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>111074</t>
+          <t>198411</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>111074</t>
+          <t>198411</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>111074</t>
+          <t>198411</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2443,32 +2443,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2481</t>
+          <t>6589</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>11014</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>3916</t>
+          <t>7689</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2513,32 +2513,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>4731</t>
+          <t>10593</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6340</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>6837</t>
+          <t>16225</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>4,64%</t>
         </is>
       </c>
     </row>
@@ -2556,32 +2556,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15812</t>
+          <t>34255</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12817</t>
+          <t>27272</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>19277</t>
+          <t>43414</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>19,44%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>16,03%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2591,32 +2591,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15473</t>
+          <t>34425</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>12520</t>
+          <t>27240</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>18940</t>
+          <t>42356</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2626,32 +2626,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>31284</t>
+          <t>68680</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>26990</t>
+          <t>58201</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>35671</t>
+          <t>82274</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>18,23%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>23,52%</t>
         </is>
       </c>
     </row>
@@ -2669,32 +2669,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29288</t>
+          <t>64756</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>25612</t>
+          <t>54866</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>33280</t>
+          <t>73848</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>38,07%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,49%</t>
+          <t>32,25%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,91%</t>
+          <t>43,41%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2704,32 +2704,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>40098</t>
+          <t>80140</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>36182</t>
+          <t>70766</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>44654</t>
+          <t>89266</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>49,48%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2739,32 +2739,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>69386</t>
+          <t>144895</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>64051</t>
+          <t>130374</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>75399</t>
+          <t>158372</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>45,28%</t>
         </is>
       </c>
     </row>
@@ -2782,32 +2782,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>33767</t>
+          <t>64512</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29385</t>
+          <t>55202</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>37285</t>
+          <t>74065</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>32,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>45,83%</t>
+          <t>43,54%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2817,32 +2817,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>32420</t>
+          <t>61057</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>28261</t>
+          <t>52333</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>36508</t>
+          <t>69639</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>33,99%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>31,32%</t>
+          <t>29,13%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>40,46%</t>
+          <t>38,77%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2852,32 +2852,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>66187</t>
+          <t>125568</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>60663</t>
+          <t>111931</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>71765</t>
+          <t>138447</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>38,57%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>39,59%</t>
         </is>
       </c>
     </row>
@@ -2895,17 +2895,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>81347</t>
+          <t>170111</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>81347</t>
+          <t>170111</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>81347</t>
+          <t>170111</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2930,17 +2930,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>90241</t>
+          <t>179625</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>90241</t>
+          <t>179625</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>90241</t>
+          <t>179625</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2965,17 +2965,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>171588</t>
+          <t>349736</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>171588</t>
+          <t>349736</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>171588</t>
+          <t>349736</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3012,32 +3012,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2171</t>
+          <t>5826</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>3006</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3746</t>
+          <t>11334</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3047,32 +3047,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1550</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>745</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>4407</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3082,32 +3082,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>3722</t>
+          <t>7786</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>2404</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>5641</t>
+          <t>12710</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>6,94%</t>
         </is>
       </c>
     </row>
@@ -3125,32 +3125,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>8862</t>
+          <t>17298</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6538</t>
+          <t>12496</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>11367</t>
+          <t>23216</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3160,32 +3160,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13719</t>
+          <t>21302</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>10722</t>
+          <t>15905</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>17000</t>
+          <t>27401</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>25,0%</t>
+          <t>24,19%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3195,32 +3195,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>22581</t>
+          <t>38600</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>19092</t>
+          <t>31125</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>26603</t>
+          <t>46870</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>25,89%</t>
+          <t>25,58%</t>
         </is>
       </c>
     </row>
@@ -3238,32 +3238,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>12883</t>
+          <t>26475</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>10588</t>
+          <t>21509</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>15303</t>
+          <t>32417</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>30,74%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>46,33%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3273,32 +3273,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31495</t>
+          <t>57532</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>27771</t>
+          <t>50245</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>35308</t>
+          <t>64432</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>46,31%</t>
+          <t>50,79%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>40,83%</t>
+          <t>44,36%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>51,92%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3308,32 +3308,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>44378</t>
+          <t>84007</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>39907</t>
+          <t>74964</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>48532</t>
+          <t>93561</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>51,06%</t>
         </is>
       </c>
     </row>
@@ -3351,32 +3351,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>10822</t>
+          <t>20368</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>8537</t>
+          <t>15275</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>13466</t>
+          <t>25885</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3386,32 +3386,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>21245</t>
+          <t>32481</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>18083</t>
+          <t>26627</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>24915</t>
+          <t>39181</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>28,67%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>26,59%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3421,32 +3421,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>32068</t>
+          <t>52848</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>27740</t>
+          <t>45986</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>36283</t>
+          <t>61727</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>35,31%</t>
+          <t>33,69%</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>34738</t>
+          <t>69966</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>34738</t>
+          <t>69966</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>34738</t>
+          <t>69966</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>68009</t>
+          <t>113275</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>68009</t>
+          <t>113275</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>68009</t>
+          <t>113275</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>102748</t>
+          <t>183241</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>102748</t>
+          <t>183241</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>102748</t>
+          <t>183241</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>163</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -3591,12 +3591,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>675</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
@@ -3626,12 +3626,12 @@
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>2544</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3651,32 +3651,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>837</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>163</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>2837</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -3694,32 +3694,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1675</t>
+          <t>5720</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>2622</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3382</t>
+          <t>10895</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3729,32 +3729,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2940</t>
+          <t>7491</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1781</t>
+          <t>4101</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>4542</t>
+          <t>12805</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3764,32 +3764,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>4615</t>
+          <t>13211</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>8065</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>6704</t>
+          <t>20529</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -3807,32 +3807,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>3574</t>
+          <t>11597</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>7456</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>5089</t>
+          <t>18537</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>13,98%</t>
+          <t>16,2%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3842,32 +3842,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>16505</t>
+          <t>33371</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>13480</t>
+          <t>26374</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>19558</t>
+          <t>40474</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3877,32 +3877,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>20079</t>
+          <t>44969</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>37228</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>23532</t>
+          <t>54793</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>22,53%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>31,6%</t>
+          <t>33,14%</t>
         </is>
       </c>
     </row>
@@ -3920,32 +3920,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>11073</t>
+          <t>28550</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>9359</t>
+          <t>21838</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>12621</t>
+          <t>33648</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>67,29%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>56,87%</t>
+          <t>47,44%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3955,32 +3955,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>38294</t>
+          <t>77771</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>35113</t>
+          <t>70437</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>41376</t>
+          <t>85851</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>66,01%</t>
+          <t>65,18%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>60,53%</t>
+          <t>59,04%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>71,32%</t>
+          <t>71,96%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3990,32 +3990,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>49367</t>
+          <t>106321</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>45703</t>
+          <t>96676</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>52961</t>
+          <t>114813</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>66,29%</t>
+          <t>64,31%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>61,37%</t>
+          <t>58,47%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>69,44%</t>
         </is>
       </c>
     </row>
@@ -4033,17 +4033,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>16457</t>
+          <t>46030</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>16457</t>
+          <t>46030</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>16457</t>
+          <t>46030</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4068,17 +4068,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>58011</t>
+          <t>119308</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>58011</t>
+          <t>119308</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>58011</t>
+          <t>119308</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4103,17 +4103,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>74468</t>
+          <t>165338</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>74468</t>
+          <t>165338</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>74468</t>
+          <t>165338</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4150,32 +4150,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>10168</t>
+          <t>23010</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>7690</t>
+          <t>17233</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>13338</t>
+          <t>31078</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4185,32 +4185,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5896</t>
+          <t>10032</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>8203</t>
+          <t>15221</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4220,32 +4220,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>16063</t>
+          <t>33042</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>12987</t>
+          <t>26379</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>19807</t>
+          <t>42408</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -4263,32 +4263,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>55386</t>
+          <t>118060</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>49688</t>
+          <t>102850</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>61869</t>
+          <t>133373</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4298,32 +4298,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>51604</t>
+          <t>103391</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>46053</t>
+          <t>90628</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>58019</t>
+          <t>117945</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>13,42%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4333,32 +4333,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>106990</t>
+          <t>221451</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>98637</t>
+          <t>200975</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>115211</t>
+          <t>242011</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,45%</t>
         </is>
       </c>
     </row>
@@ -4376,32 +4376,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>114078</t>
+          <t>244818</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>107095</t>
+          <t>227430</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>122416</t>
+          <t>264030</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>37,2%</t>
+          <t>37,66%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4411,32 +4411,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>151628</t>
+          <t>306293</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>143410</t>
+          <t>285901</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>161668</t>
+          <t>325885</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>39,15%</t>
+          <t>39,76%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>41,74%</t>
+          <t>42,3%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4446,32 +4446,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>265707</t>
+          <t>551112</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>253633</t>
+          <t>524691</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>276736</t>
+          <t>576879</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>35,66%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>39,2%</t>
         </is>
       </c>
     </row>
@@ -4489,32 +4489,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>149478</t>
+          <t>315275</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>141652</t>
+          <t>297719</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>156589</t>
+          <t>336644</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>45,42%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>43,04%</t>
+          <t>42,46%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>47,58%</t>
+          <t>48,01%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4524,32 +4524,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>178155</t>
+          <t>350636</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>169774</t>
+          <t>332462</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>186482</t>
+          <t>371415</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>46,0%</t>
+          <t>45,52%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>48,15%</t>
+          <t>48,21%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4559,32 +4559,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>327633</t>
+          <t>665911</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>316209</t>
+          <t>641133</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>340112</t>
+          <t>694236</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>45,73%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>44,14%</t>
+          <t>43,57%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>47,18%</t>
         </is>
       </c>
     </row>
@@ -4602,17 +4602,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>329111</t>
+          <t>701163</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>329111</t>
+          <t>701163</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>329111</t>
+          <t>701163</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4637,17 +4637,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>387282</t>
+          <t>770353</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>387282</t>
+          <t>770353</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>387282</t>
+          <t>770353</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4672,17 +4672,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>716393</t>
+          <t>1471517</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>716393</t>
+          <t>1471517</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>716393</t>
+          <t>1471517</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4966,12 +4966,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2238</t>
+          <t>2132</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15212</t>
+          <t>14912</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8233</t>
+          <t>8187</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5036,12 +5036,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>5085</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>20014</t>
+          <t>19249</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5051,12 +5051,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -5079,12 +5079,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28202</t>
+          <t>28411</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56142</t>
+          <t>57412</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5094,12 +5094,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28932</t>
+          <t>28179</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>51870</t>
+          <t>50218</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5129,12 +5129,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>63457</t>
+          <t>63716</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>97710</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5164,12 +5164,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>14,74%</t>
         </is>
       </c>
     </row>
@@ -5192,12 +5192,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>117280</t>
+          <t>118132</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>155910</t>
+          <t>155753</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,52%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>118201</t>
+          <t>117872</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>147519</t>
+          <t>147666</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5242,12 +5242,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>49,45%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>244796</t>
+          <t>244733</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>292176</t>
+          <t>292981</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5277,12 +5277,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>36,8%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>43,94%</t>
+          <t>44,06%</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5305,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>164717</t>
+          <t>164767</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>205302</t>
+          <t>203072</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5320,12 +5320,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,99%</t>
+          <t>55,38%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5340,12 +5340,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>109020</t>
+          <t>107771</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>137507</t>
+          <t>136367</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5355,12 +5355,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>46,09%</t>
+          <t>45,71%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5375,12 +5375,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>282834</t>
+          <t>280617</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>332193</t>
+          <t>333760</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5390,12 +5390,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>42,53%</t>
+          <t>42,2%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>49,95%</t>
+          <t>50,19%</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4423</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18006</t>
+          <t>17514</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5550,12 +5550,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>700</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9132</t>
+          <t>9604</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>6805</t>
+          <t>6162</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>21855</t>
+          <t>22586</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5648,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29051</t>
+          <t>29660</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54323</t>
+          <t>54091</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5663,12 +5663,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>19395</t>
+          <t>19934</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37113</t>
+          <t>36833</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5698,12 +5698,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>53427</t>
+          <t>54152</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>83842</t>
+          <t>84699</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>14,57%</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90831</t>
+          <t>90861</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>126799</t>
+          <t>128150</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>81090</t>
+          <t>78493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>107605</t>
+          <t>106008</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5811,12 +5811,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>30,28%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>181192</t>
+          <t>179623</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>226642</t>
+          <t>223383</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>38,43%</t>
         </is>
       </c>
     </row>
@@ -5874,12 +5874,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>145213</t>
+          <t>145700</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>183328</t>
+          <t>183507</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5889,12 +5889,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,09%</t>
+          <t>45,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>56,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>122325</t>
+          <t>121871</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>149270</t>
+          <t>150549</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>47,01%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>58,07%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>276246</t>
+          <t>274590</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>322849</t>
+          <t>322641</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5959,12 +5959,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>47,24%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>55,54%</t>
+          <t>55,5%</t>
         </is>
       </c>
     </row>
@@ -6104,12 +6104,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6272</t>
+          <t>5335</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>57191</t>
+          <t>55867</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>11,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>6836</t>
+          <t>6203</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>48989</t>
+          <t>48777</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>8,52%</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>107008</t>
+          <t>105311</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>427934</t>
+          <t>421267</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>13183</t>
+          <t>13261</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6267,12 +6267,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>102474</t>
+          <t>102218</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>489374</t>
+          <t>495738</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6302,12 +6302,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>86,54%</t>
         </is>
       </c>
     </row>
@@ -6330,12 +6330,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>24040</t>
+          <t>27640</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>196668</t>
+          <t>194733</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>40,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6365,12 +6365,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>46444</t>
+          <t>46878</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>61809</t>
+          <t>62562</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6380,12 +6380,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>48,13%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>64,23%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>47309</t>
+          <t>42880</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>262970</t>
+          <t>261457</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6415,12 +6415,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>45,91%</t>
+          <t>45,64%</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15776</t>
+          <t>18671</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>130978</t>
+          <t>133929</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>28,17%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27960</t>
+          <t>27920</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>42597</t>
+          <t>43724</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6493,12 +6493,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>30084</t>
+          <t>28393</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>173525</t>
+          <t>177505</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6528,12 +6528,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>30,99%</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14329</t>
+          <t>14537</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33600</t>
+          <t>34866</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>4283</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24496</t>
+          <t>23497</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>20210</t>
+          <t>18132</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>51406</t>
+          <t>51173</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -6758,12 +6758,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6786,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>104889</t>
+          <t>105842</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>149727</t>
+          <t>148055</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>40450</t>
+          <t>38985</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>159099</t>
+          <t>159700</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>129895</t>
+          <t>125617</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>287211</t>
+          <t>287679</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>24,63%</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6899,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>167074</t>
+          <t>167390</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>216237</t>
+          <t>215664</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>330379</t>
+          <t>330884</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>552822</t>
+          <t>558090</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6949,12 +6949,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>86,8%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>500515</t>
+          <t>501219</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>865328</t>
+          <t>852595</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>74,07%</t>
+          <t>72,98%</t>
         </is>
       </c>
     </row>
@@ -7012,12 +7012,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>165455</t>
+          <t>167621</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>213358</t>
+          <t>221121</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7027,12 +7027,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7047,12 +7047,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36504</t>
+          <t>28879</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>135682</t>
+          <t>133362</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7062,12 +7062,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>143673</t>
+          <t>158152</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>346917</t>
+          <t>346997</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12407</t>
+          <t>12785</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>32535</t>
+          <t>32370</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7277,12 +7277,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>4707</t>
+          <t>4583</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>16633</t>
+          <t>17735</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7292,12 +7292,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7312,12 +7312,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>19174</t>
+          <t>19322</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>44310</t>
+          <t>44363</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7327,12 +7327,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,01%</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7355,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>46520</t>
+          <t>47808</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>74103</t>
+          <t>75610</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7370,12 +7370,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>35,81%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7390,12 +7390,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>88657</t>
+          <t>89626</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>269278</t>
+          <t>265153</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7405,12 +7405,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>21,03%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>63,86%</t>
+          <t>62,88%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>149423</t>
+          <t>148112</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>355911</t>
+          <t>337189</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7440,12 +7440,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>56,25%</t>
+          <t>53,29%</t>
         </is>
       </c>
     </row>
@@ -7468,12 +7468,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>68696</t>
+          <t>68684</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>101763</t>
+          <t>102062</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7483,12 +7483,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>48,34%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>95304</t>
+          <t>95456</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>213081</t>
+          <t>213566</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>50,54%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>165543</t>
+          <t>177508</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>300133</t>
+          <t>301213</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>47,6%</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>33210</t>
+          <t>33869</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>56485</t>
+          <t>56839</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>54839</t>
+          <t>48997</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>114039</t>
+          <t>112304</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -7651,12 +7651,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>87429</t>
+          <t>92879</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>158316</t>
+          <t>159111</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -7666,12 +7666,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>25,02%</t>
+          <t>25,14%</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7846,12 +7846,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>653</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5736</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7881,12 +7881,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>725</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>6346</t>
+          <t>5954</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -7924,12 +7924,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>15945</t>
+          <t>16359</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>47293</t>
+          <t>47426</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>29,7%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>26130</t>
+          <t>25963</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>49218</t>
+          <t>51012</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>48605</t>
+          <t>46823</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>87883</t>
+          <t>87202</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,54%</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>37808</t>
+          <t>41237</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>77966</t>
+          <t>80097</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8052,12 +8052,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>25,9%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>48,97%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>205012</t>
+          <t>206169</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>248538</t>
+          <t>247823</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8087,12 +8087,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>42,3%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>51,13%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>256017</t>
+          <t>254813</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>315740</t>
+          <t>316476</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8122,12 +8122,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>39,76%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>49,15%</t>
         </is>
       </c>
     </row>
@@ -8150,12 +8150,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>51282</t>
+          <t>50540</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>91822</t>
+          <t>90670</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8165,12 +8165,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>31,74%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>57,67%</t>
+          <t>56,95%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8185,12 +8185,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>198584</t>
+          <t>197260</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>240741</t>
+          <t>240244</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>40,7%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>49,67%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -8220,12 +8220,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>260981</t>
+          <t>261892</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>321799</t>
+          <t>324471</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>50,39%</t>
         </is>
       </c>
     </row>
@@ -8380,12 +8380,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>54997</t>
+          <t>55554</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>107901</t>
+          <t>107566</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8395,12 +8395,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8415,12 +8415,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>22303</t>
+          <t>22932</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>46015</t>
+          <t>45685</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8430,12 +8430,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>90705</t>
+          <t>90014</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>146916</t>
+          <t>146979</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
@@ -8493,12 +8493,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>382878</t>
+          <t>383546</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>1109199</t>
+          <t>1212277</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>53,69%</t>
+          <t>58,68%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>268106</t>
+          <t>271092</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>562437</t>
+          <t>537497</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -8543,12 +8543,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>698547</t>
+          <t>697966</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1533424</t>
+          <t>1556142</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -8578,12 +8578,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>35,96%</t>
+          <t>36,49%</t>
         </is>
       </c>
     </row>
@@ -8606,12 +8606,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>443741</t>
+          <t>418232</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>774361</t>
+          <t>779153</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>977529</t>
+          <t>969543</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>1436833</t>
+          <t>1409309</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>65,36%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>1501993</t>
+          <t>1497481</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>2136090</t>
+          <t>2112031</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -8691,12 +8691,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>35,12%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>50,1%</t>
+          <t>49,53%</t>
         </is>
       </c>
     </row>
@@ -8719,12 +8719,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>466206</t>
+          <t>421457</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>829723</t>
+          <t>827336</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -8734,12 +8734,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -8754,12 +8754,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>491501</t>
+          <t>502955</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>785458</t>
+          <t>782358</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -8769,12 +8769,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>22,88%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -8789,12 +8789,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>1109604</t>
+          <t>1073347</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>1571920</t>
+          <t>1569920</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>25,17%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>36,82%</t>
         </is>
       </c>
     </row>
@@ -13416,12 +13416,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10975</t>
+          <t>10940</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>20748</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -13431,12 +13431,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -13451,12 +13451,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9454</t>
+          <t>9379</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19904</t>
+          <t>19980</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -13466,12 +13466,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,73%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -13486,12 +13486,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>22613</t>
+          <t>22456</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>36945</t>
+          <t>37336</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -13501,12 +13501,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,2%</t>
         </is>
       </c>
     </row>
@@ -13529,12 +13529,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57839</t>
+          <t>57454</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75013</t>
+          <t>74285</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -13544,12 +13544,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>37,26%</t>
+          <t>36,89%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -13564,12 +13564,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>79155</t>
+          <t>77332</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>97015</t>
+          <t>97564</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -13579,12 +13579,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>38,68%</t>
+          <t>37,79%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -13599,12 +13599,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>140339</t>
+          <t>141822</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>166837</t>
+          <t>166598</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -13614,12 +13614,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>41,03%</t>
         </is>
       </c>
     </row>
@@ -13642,12 +13642,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6961</t>
+          <t>6251</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15763</t>
+          <t>14536</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -13657,12 +13657,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -13677,12 +13677,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10903</t>
+          <t>10802</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20392</t>
+          <t>20497</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -13692,12 +13692,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -13712,12 +13712,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>19626</t>
+          <t>19538</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>32350</t>
+          <t>32599</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -13727,12 +13727,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -13755,12 +13755,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>100483</t>
+          <t>100066</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>119362</t>
+          <t>119000</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -13770,12 +13770,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,91%</t>
+          <t>49,7%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,28%</t>
+          <t>59,1%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -13790,12 +13790,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>78484</t>
+          <t>77441</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>97810</t>
+          <t>97557</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -13805,12 +13805,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>47,79%</t>
+          <t>47,67%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -13825,12 +13825,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>184638</t>
+          <t>183711</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>211303</t>
+          <t>210502</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -13840,12 +13840,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>45,48%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>51,85%</t>
         </is>
       </c>
     </row>
@@ -13985,12 +13985,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7775</t>
+          <t>7985</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17395</t>
+          <t>17438</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -14000,12 +14000,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -14020,12 +14020,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8835</t>
+          <t>9278</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -14035,12 +14035,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -14055,12 +14055,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>11626</t>
+          <t>12262</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>22549</t>
+          <t>23809</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -14070,12 +14070,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -14098,12 +14098,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39719</t>
+          <t>39599</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>54207</t>
+          <t>54181</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -14113,12 +14113,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>45,02%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -14133,12 +14133,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>49064</t>
+          <t>48861</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>65223</t>
+          <t>65249</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -14148,12 +14148,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -14168,12 +14168,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>92652</t>
+          <t>91981</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>114968</t>
+          <t>114890</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -14183,12 +14183,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>32,34%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>40,1%</t>
         </is>
       </c>
     </row>
@@ -14211,12 +14211,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2264</t>
+          <t>2345</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8153</t>
+          <t>8275</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -14226,12 +14226,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -14246,12 +14246,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4743</t>
+          <t>4965</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11748</t>
+          <t>12055</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -14261,12 +14261,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -14281,12 +14281,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>8094</t>
+          <t>8227</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>16955</t>
+          <t>16724</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -14296,12 +14296,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -14324,12 +14324,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>49669</t>
+          <t>49408</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>63984</t>
+          <t>65356</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -14339,12 +14339,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>41,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>53,15%</t>
+          <t>54,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -14359,12 +14359,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>87995</t>
+          <t>87218</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>104852</t>
+          <t>104434</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -14374,12 +14374,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>63,11%</t>
+          <t>62,86%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -14394,12 +14394,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>141750</t>
+          <t>143269</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>165190</t>
+          <t>166106</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -14409,12 +14409,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>57,65%</t>
+          <t>57,97%</t>
         </is>
       </c>
     </row>
@@ -14554,12 +14554,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10638</t>
+          <t>10889</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>22107</t>
+          <t>23085</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -14569,12 +14569,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>26,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -14589,12 +14589,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>656</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4575</t>
+          <t>4641</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -14604,12 +14604,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -14624,12 +14624,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>12375</t>
+          <t>12049</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>24672</t>
+          <t>24022</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -14639,12 +14639,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>18,1%</t>
         </is>
       </c>
     </row>
@@ -14667,12 +14667,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>37807</t>
+          <t>37415</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>51994</t>
+          <t>51731</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -14682,12 +14682,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>58,76%</t>
+          <t>58,46%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -14702,12 +14702,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>15206</t>
+          <t>15221</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>25458</t>
+          <t>25175</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -14717,12 +14717,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>57,58%</t>
+          <t>56,94%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -14737,12 +14737,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>55823</t>
+          <t>56114</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>73603</t>
+          <t>73654</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -14752,12 +14752,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>42,07%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>55,46%</t>
+          <t>55,5%</t>
         </is>
       </c>
     </row>
@@ -14780,12 +14780,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11475</t>
+          <t>11770</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -14795,12 +14795,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -14815,12 +14815,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>3679</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10326</t>
+          <t>10360</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -14830,12 +14830,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -14850,12 +14850,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>9249</t>
+          <t>9298</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19034</t>
+          <t>19339</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -14865,12 +14865,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>14,34%</t>
+          <t>14,57%</t>
         </is>
       </c>
     </row>
@@ -14893,12 +14893,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15682</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27808</t>
+          <t>27467</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -14908,12 +14908,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -14928,12 +14928,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11915</t>
+          <t>11901</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21003</t>
+          <t>20680</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -14943,12 +14943,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>26,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>47,5%</t>
+          <t>46,77%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -14963,12 +14963,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>29986</t>
+          <t>30770</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>44897</t>
+          <t>45269</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -14978,12 +14978,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>22,6%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>34,11%</t>
         </is>
       </c>
     </row>
@@ -15123,12 +15123,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27026</t>
+          <t>27060</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>42938</t>
+          <t>43982</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -15138,12 +15138,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -15158,12 +15158,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13091</t>
+          <t>12853</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>25580</t>
+          <t>26203</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -15173,12 +15173,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -15193,12 +15193,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>43329</t>
+          <t>43118</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>64427</t>
+          <t>64049</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -15208,12 +15208,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>14,37%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,48%</t>
+          <t>21,35%</t>
         </is>
       </c>
     </row>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52789</t>
+          <t>52610</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>72861</t>
+          <t>73373</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -15251,12 +15251,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>48,66%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -15271,12 +15271,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>63153</t>
+          <t>61052</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>81880</t>
+          <t>81669</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -15286,12 +15286,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>42,04%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -15306,12 +15306,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>121253</t>
+          <t>120250</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>149101</t>
+          <t>148295</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -15321,12 +15321,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>40,09%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>49,7%</t>
+          <t>49,44%</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>11121</t>
+          <t>11372</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27683</t>
+          <t>27651</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -15364,12 +15364,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>18,47%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -15384,12 +15384,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>14735</t>
+          <t>14802</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27654</t>
+          <t>27175</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -15399,12 +15399,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -15419,12 +15419,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>28507</t>
+          <t>28390</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>48521</t>
+          <t>49455</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -15434,12 +15434,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,49%</t>
         </is>
       </c>
     </row>
@@ -15462,12 +15462,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28283</t>
+          <t>28929</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>44156</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -15477,12 +15477,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>31,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -15497,12 +15497,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>30760</t>
+          <t>30736</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>48800</t>
+          <t>49034</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -15512,12 +15512,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>32,48%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -15532,12 +15532,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>64216</t>
+          <t>63716</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>88515</t>
+          <t>88611</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -15547,12 +15547,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>21,24%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>29,54%</t>
         </is>
       </c>
     </row>
@@ -15692,12 +15692,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>5586</t>
+          <t>5922</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>14132</t>
+          <t>13961</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -15707,12 +15707,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -15727,12 +15727,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>5852</t>
+          <t>5829</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>15271</t>
+          <t>15027</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -15742,12 +15742,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>17,78%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -15762,12 +15762,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>13345</t>
+          <t>13281</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>25723</t>
+          <t>25358</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -15777,12 +15777,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>18,83%</t>
         </is>
       </c>
     </row>
@@ -15805,12 +15805,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>20725</t>
+          <t>20574</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>31696</t>
+          <t>32175</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -15820,12 +15820,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>41,36%</t>
+          <t>41,06%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>64,21%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -15840,12 +15840,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>36344</t>
+          <t>36771</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>51055</t>
+          <t>51687</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -15855,12 +15855,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>42,99%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>60,4%</t>
+          <t>61,15%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -15875,12 +15875,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>60427</t>
+          <t>61455</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>80146</t>
+          <t>80865</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -15890,12 +15890,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>59,53%</t>
+          <t>60,06%</t>
         </is>
       </c>
     </row>
@@ -15918,12 +15918,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2747</t>
+          <t>2792</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>9365</t>
+          <t>10457</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -15933,12 +15933,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -15953,12 +15953,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>7257</t>
+          <t>7188</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>17984</t>
+          <t>19564</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -15968,12 +15968,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -15988,12 +15988,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>11322</t>
+          <t>11605</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>25157</t>
+          <t>24621</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -16003,12 +16003,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>18,29%</t>
         </is>
       </c>
     </row>
@@ -16031,12 +16031,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>5526</t>
+          <t>5303</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>13716</t>
+          <t>13750</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -16046,12 +16046,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,44%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -16066,12 +16066,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>13486</t>
+          <t>13376</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>26250</t>
+          <t>26610</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -16081,12 +16081,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -16101,12 +16101,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>21475</t>
+          <t>21502</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>36544</t>
+          <t>36287</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -16116,12 +16116,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>26,95%</t>
         </is>
       </c>
     </row>
@@ -16261,12 +16261,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>1816</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6641</t>
+          <t>6909</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -16276,12 +16276,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -16296,12 +16296,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>567</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>5588</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -16311,12 +16311,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -16331,12 +16331,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>3428</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>9873</t>
+          <t>9487</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -16346,12 +16346,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>12,65%</t>
         </is>
       </c>
     </row>
@@ -16374,12 +16374,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6125</t>
+          <t>5990</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>13682</t>
+          <t>13112</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -16389,12 +16389,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>53,77%</t>
+          <t>51,53%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -16409,12 +16409,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>16744</t>
+          <t>16692</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>26044</t>
+          <t>26023</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -16424,12 +16424,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>33,79%</t>
+          <t>33,68%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>52,55%</t>
+          <t>52,51%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -16444,12 +16444,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>24591</t>
+          <t>25014</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>37027</t>
+          <t>37080</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -16459,12 +16459,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>33,35%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>49,44%</t>
         </is>
       </c>
     </row>
@@ -16487,12 +16487,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>554</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4562</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -16502,12 +16502,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -16522,12 +16522,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2398</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>9458</t>
+          <t>8938</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -16537,12 +16537,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -16557,12 +16557,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>3826</t>
+          <t>3549</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>11589</t>
+          <t>11362</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -16572,12 +16572,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>15,45%</t>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -16600,12 +16600,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6677</t>
+          <t>6649</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>14341</t>
+          <t>13654</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -16615,12 +16615,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>56,36%</t>
+          <t>53,66%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -16635,12 +16635,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>16888</t>
+          <t>16970</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>26532</t>
+          <t>26962</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -16650,12 +16650,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>54,41%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -16670,12 +16670,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>26178</t>
+          <t>26302</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>37886</t>
+          <t>38137</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -16685,12 +16685,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>50,85%</t>
         </is>
       </c>
     </row>
@@ -16830,12 +16830,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>77334</t>
+          <t>77347</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>103571</t>
+          <t>103982</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -16850,7 +16850,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -16865,12 +16865,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>41005</t>
+          <t>41349</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>62724</t>
+          <t>62676</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -16880,12 +16880,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -16900,12 +16900,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>124574</t>
+          <t>125590</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>158708</t>
+          <t>158107</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -16915,12 +16915,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,84%</t>
         </is>
       </c>
     </row>
@@ -16943,12 +16943,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>236744</t>
+          <t>234505</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>275768</t>
+          <t>272647</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -16958,12 +16958,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>43,39%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -16978,12 +16978,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>283150</t>
+          <t>280773</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>320952</t>
+          <t>320535</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -16993,12 +16993,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>45,89%</t>
+          <t>45,83%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -17013,12 +17013,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>531454</t>
+          <t>532476</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>583666</t>
+          <t>584572</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -17028,12 +17028,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>39,81%</t>
+          <t>39,89%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>43,79%</t>
         </is>
       </c>
     </row>
@@ -17056,12 +17056,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>37303</t>
+          <t>36934</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>58973</t>
+          <t>59725</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -17071,12 +17071,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -17091,12 +17091,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>55080</t>
+          <t>54843</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>77102</t>
+          <t>78163</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -17106,12 +17106,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -17126,12 +17126,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>97287</t>
+          <t>97231</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>129455</t>
+          <t>127580</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -17141,12 +17141,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,56%</t>
         </is>
       </c>
     </row>
@@ -17169,12 +17169,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>225671</t>
+          <t>225870</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>262376</t>
+          <t>262569</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -17184,82 +17184,82 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
+          <t>41,32%</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>280699</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>260493</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>298734</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>40,14%</t>
+        </is>
+      </c>
+      <c r="O37" s="2" t="inlineStr">
+        <is>
+          <t>37,25%</t>
+        </is>
+      </c>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>42,72%</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>1382</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>524792</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>498438</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>551192</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>39,31%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>37,34%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
           <t>41,29%</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>730</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>280699</t>
-        </is>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>261260</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="inlineStr">
-        <is>
-          <t>300121</t>
-        </is>
-      </c>
-      <c r="N37" s="2" t="inlineStr">
-        <is>
-          <t>40,14%</t>
-        </is>
-      </c>
-      <c r="O37" s="2" t="inlineStr">
-        <is>
-          <t>37,36%</t>
-        </is>
-      </c>
-      <c r="P37" s="2" t="inlineStr">
-        <is>
-          <t>42,92%</t>
-        </is>
-      </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>1382</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr">
-        <is>
-          <t>524792</t>
-        </is>
-      </c>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t>498301</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="inlineStr">
-        <is>
-          <t>550202</t>
-        </is>
-      </c>
-      <c r="U37" s="2" t="inlineStr">
-        <is>
-          <t>39,31%</t>
-        </is>
-      </c>
-      <c r="V37" s="2" t="inlineStr">
-        <is>
-          <t>37,33%</t>
-        </is>
-      </c>
-      <c r="W37" s="2" t="inlineStr">
-        <is>
-          <t>41,22%</t>
         </is>
       </c>
     </row>
